--- a/data/working.origin.model.formulas.corrected.xlsx
+++ b/data/working.origin.model.formulas.corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorui/Documents/GitHub/FinlandAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B48E5-4227-2749-A290-8E3A88799251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C767AE-E3F3-1148-BA4A-3A50E7D50680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24620" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aic.models2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="738">
   <si>
     <t>V1</t>
   </si>
@@ -1381,886 +1381,862 @@
     <t>withoutcontrols,</t>
   </si>
   <si>
-    <t>2.203378</t>
-  </si>
-  <si>
-    <t>-39.1633</t>
-  </si>
-  <si>
-    <t>83.1266</t>
-  </si>
-  <si>
-    <t>0.536505032</t>
-  </si>
-  <si>
-    <t>0.5421416</t>
-  </si>
-  <si>
-    <t>-31.40755</t>
-  </si>
-  <si>
-    <t>67.61511</t>
-  </si>
-  <si>
-    <t>0.45146845</t>
-  </si>
-  <si>
-    <t>0.6461502</t>
-  </si>
-  <si>
-    <t>-0.2056058</t>
-  </si>
-  <si>
-    <t>-30.91039</t>
-  </si>
-  <si>
-    <t>69.53507</t>
-  </si>
-  <si>
-    <t>1.919961</t>
-  </si>
-  <si>
-    <t>0.172867429</t>
-  </si>
-  <si>
-    <t>1.724749</t>
-  </si>
-  <si>
-    <t>-34.20482</t>
-  </si>
-  <si>
-    <t>73.20965</t>
-  </si>
-  <si>
-    <t>0.503074785</t>
-  </si>
-  <si>
-    <t>0.2261924</t>
-  </si>
-  <si>
-    <t>-24.46481</t>
-  </si>
-  <si>
-    <t>56.6439</t>
-  </si>
-  <si>
-    <t>0.57886658</t>
-  </si>
-  <si>
-    <t>0.2579161</t>
-  </si>
-  <si>
-    <t>-16.1456</t>
-  </si>
-  <si>
-    <t>40.00549</t>
-  </si>
-  <si>
-    <t>0.599565562</t>
-  </si>
-  <si>
-    <t>1.0241869</t>
-  </si>
-  <si>
-    <t>-11.85153</t>
-  </si>
-  <si>
-    <t>31.41734</t>
-  </si>
-  <si>
-    <t>0.600213267</t>
-  </si>
-  <si>
-    <t>0.3811934</t>
-  </si>
-  <si>
-    <t>-14.52328</t>
-  </si>
-  <si>
-    <t>36.76085</t>
-  </si>
-  <si>
-    <t>0.416239655</t>
-  </si>
-  <si>
-    <t>0.407747</t>
-  </si>
-  <si>
-    <t>-0.03462232</t>
-  </si>
-  <si>
-    <t>-13.39848</t>
-  </si>
-  <si>
-    <t>37.87389</t>
-  </si>
-  <si>
-    <t>1.113043</t>
-  </si>
-  <si>
-    <t>0.23858836</t>
-  </si>
-  <si>
-    <t>4.864967</t>
-  </si>
-  <si>
-    <t>-90.24958</t>
-  </si>
-  <si>
-    <t>188.2134</t>
-  </si>
-  <si>
-    <t>0.426800428</t>
-  </si>
-  <si>
-    <t>4.824543</t>
-  </si>
-  <si>
-    <t>0.08311365</t>
-  </si>
-  <si>
-    <t>-89.4471</t>
-  </si>
-  <si>
-    <t>189.9711</t>
-  </si>
-  <si>
-    <t>1.757674</t>
-  </si>
-  <si>
-    <t>0.177235506</t>
-  </si>
-  <si>
-    <t>4.801532</t>
-  </si>
-  <si>
-    <t>0.09251623</t>
-  </si>
-  <si>
-    <t>-89.47803</t>
-  </si>
-  <si>
-    <t>190.033</t>
-  </si>
-  <si>
-    <t>1.819535</t>
-  </si>
-  <si>
-    <t>0.171837473</t>
-  </si>
-  <si>
-    <t>4.785638</t>
-  </si>
-  <si>
-    <t>-88.29936</t>
-  </si>
-  <si>
-    <t>184.313</t>
-  </si>
-  <si>
-    <t>0.538467519</t>
-  </si>
-  <si>
-    <t>2.135955</t>
-  </si>
-  <si>
-    <t>-58.69636</t>
-  </si>
-  <si>
-    <t>125.107</t>
-  </si>
-  <si>
-    <t>0.526085646</t>
-  </si>
-  <si>
-    <t>4.607388</t>
-  </si>
-  <si>
-    <t>-87.99767</t>
-  </si>
-  <si>
-    <t>183.7096</t>
-  </si>
-  <si>
-    <t>0.565097283</t>
-  </si>
-  <si>
-    <t>-1.861708</t>
-  </si>
-  <si>
-    <t>-6.853268</t>
-  </si>
-  <si>
-    <t>18.50654</t>
-  </si>
-  <si>
-    <t>0.542197539</t>
-  </si>
-  <si>
-    <t>-0.1253504</t>
-  </si>
-  <si>
-    <t>-17.10053</t>
-  </si>
-  <si>
-    <t>39.00106</t>
-  </si>
-  <si>
-    <t>0.544764237</t>
-  </si>
-  <si>
-    <t>-2.652391</t>
-  </si>
-  <si>
-    <t>-4.04765</t>
-  </si>
-  <si>
-    <t>0.525490489</t>
-  </si>
-  <si>
-    <t>1.282031</t>
-  </si>
-  <si>
-    <t>17.07327</t>
-  </si>
-  <si>
-    <t>-26.43226</t>
-  </si>
-  <si>
-    <t>0.50138212</t>
-  </si>
-  <si>
-    <t>-2.105334</t>
-  </si>
-  <si>
-    <t>-1.197884</t>
-  </si>
-  <si>
-    <t>26.76888</t>
-  </si>
-  <si>
-    <t>-41.09331</t>
-  </si>
-  <si>
-    <t>0.572958022</t>
-  </si>
-  <si>
-    <t>-2.645982</t>
-  </si>
-  <si>
-    <t>1.0184781</t>
-  </si>
-  <si>
-    <t>-1.529036</t>
-  </si>
-  <si>
-    <t>28.45249</t>
-  </si>
-  <si>
-    <t>-39.40498</t>
-  </si>
-  <si>
-    <t>1.688337</t>
-  </si>
-  <si>
-    <t>0.24632301</t>
-  </si>
-  <si>
-    <t>-0.9279612</t>
-  </si>
-  <si>
-    <t>-0.788306</t>
-  </si>
-  <si>
-    <t>14.81809</t>
-  </si>
-  <si>
-    <t>-17.191745</t>
-  </si>
-  <si>
-    <t>0.595656962</t>
-  </si>
-  <si>
-    <t>-0.6747076</t>
-  </si>
-  <si>
-    <t>-0.8489573</t>
-  </si>
-  <si>
-    <t>13.206182</t>
-  </si>
-  <si>
-    <t>-13.967919</t>
-  </si>
-  <si>
-    <t>0.599076121</t>
-  </si>
-  <si>
-    <t>-3.183075</t>
-  </si>
-  <si>
-    <t>40.3836</t>
-  </si>
-  <si>
-    <t>-72.3672</t>
-  </si>
-  <si>
-    <t>0.6467599272</t>
-  </si>
-  <si>
-    <t>-0.8513318</t>
-  </si>
-  <si>
-    <t>-0.8110532</t>
-  </si>
-  <si>
-    <t>-16.190554</t>
-  </si>
-  <si>
-    <t>0.600101848</t>
-  </si>
-  <si>
-    <t>-0.01696538</t>
-  </si>
-  <si>
-    <t>1.1997707</t>
-  </si>
-  <si>
-    <t>-1.3852113</t>
-  </si>
-  <si>
-    <t>29.6188</t>
-  </si>
-  <si>
-    <t>-41.73761</t>
-  </si>
-  <si>
-    <t>0.34245381</t>
-  </si>
-  <si>
-    <t>0.67980089</t>
-  </si>
-  <si>
-    <t>-0.7728203</t>
-  </si>
-  <si>
-    <t>26.82364</t>
-  </si>
-  <si>
-    <t>-41.20284</t>
-  </si>
-  <si>
-    <t>0.5347663</t>
-  </si>
-  <si>
-    <t>0.26210721</t>
-  </si>
-  <si>
-    <t>0.15176518</t>
-  </si>
-  <si>
-    <t>24.60161</t>
-  </si>
-  <si>
-    <t>-40.80322</t>
-  </si>
-  <si>
-    <t>0.9343941</t>
-  </si>
-  <si>
-    <t>0.21463518</t>
-  </si>
-  <si>
-    <t>-0.12739384</t>
-  </si>
-  <si>
-    <t>32.95582</t>
-  </si>
-  <si>
-    <t>-57.51165</t>
-  </si>
-  <si>
-    <t>0.25702964</t>
-  </si>
-  <si>
-    <t>-0.82084904</t>
-  </si>
-  <si>
-    <t>1.973202</t>
-  </si>
-  <si>
-    <t>-1.6802428</t>
-  </si>
-  <si>
-    <t>37.41365</t>
-  </si>
-  <si>
-    <t>-57.3273</t>
-  </si>
-  <si>
-    <t>0.1843437</t>
-  </si>
-  <si>
-    <t>0.23439777</t>
-  </si>
-  <si>
-    <t>-1.80703847</t>
-  </si>
-  <si>
-    <t>4.072738</t>
-  </si>
-  <si>
-    <t>2.1799417</t>
-  </si>
-  <si>
-    <t>-5.3402217</t>
-  </si>
-  <si>
-    <t>40.62544</t>
-  </si>
-  <si>
-    <t>-57.25089</t>
-  </si>
-  <si>
-    <t>0.2607595</t>
-  </si>
-  <si>
-    <t>0.22561086</t>
-  </si>
-  <si>
-    <t>0.15971813</t>
-  </si>
-  <si>
-    <t>-0.6443009</t>
-  </si>
-  <si>
-    <t>34.11556</t>
-  </si>
-  <si>
-    <t>-55.78667</t>
-  </si>
-  <si>
-    <t>1.7249767</t>
-  </si>
-  <si>
-    <t>0.10849489</t>
-  </si>
-  <si>
-    <t>-1.785392</t>
-  </si>
-  <si>
-    <t>35.12305</t>
-  </si>
-  <si>
-    <t>-61.84611</t>
-  </si>
-  <si>
-    <t>0.5519669571</t>
-  </si>
-  <si>
-    <t>-1.366549</t>
-  </si>
-  <si>
-    <t>-0.564806</t>
-  </si>
-  <si>
-    <t>36.19367</t>
-  </si>
-  <si>
-    <t>-59.9429</t>
-  </si>
-  <si>
-    <t>1.903206</t>
-  </si>
-  <si>
-    <t>0.2131263939</t>
-  </si>
-  <si>
-    <t>-0.9297699</t>
-  </si>
-  <si>
-    <t>-0.7511836</t>
-  </si>
-  <si>
-    <t>14.83006</t>
-  </si>
-  <si>
-    <t>-17.215669</t>
-  </si>
-  <si>
-    <t>0.508397604</t>
-  </si>
-  <si>
-    <t>-1.894618</t>
-  </si>
-  <si>
-    <t>-0.9264064</t>
-  </si>
-  <si>
-    <t>23.60207</t>
-  </si>
-  <si>
-    <t>-34.7597</t>
-  </si>
-  <si>
-    <t>0.542593663</t>
-  </si>
-  <si>
-    <t>-2.061311</t>
-  </si>
-  <si>
-    <t>32.47212</t>
-  </si>
-  <si>
-    <t>-56.54425</t>
-  </si>
-  <si>
-    <t>0.6165250008</t>
-  </si>
-  <si>
-    <t>-0.4474962</t>
-  </si>
-  <si>
-    <t>-0.8568964</t>
-  </si>
-  <si>
-    <t>11.973614</t>
-  </si>
-  <si>
-    <t>-11.502783</t>
-  </si>
-  <si>
-    <t>0.562834404</t>
-  </si>
-  <si>
-    <t>-1.299991</t>
-  </si>
-  <si>
-    <t>-0.6641106</t>
-  </si>
-  <si>
-    <t>17.93072</t>
-  </si>
-  <si>
-    <t>-23.41699</t>
-  </si>
-  <si>
-    <t>0.467302856</t>
-  </si>
-  <si>
-    <t>-1.609002</t>
-  </si>
-  <si>
-    <t>15.01306</t>
-  </si>
-  <si>
-    <t>-21.62612</t>
-  </si>
-  <si>
-    <t>1.790879</t>
-  </si>
-  <si>
-    <t>0.190859632</t>
-  </si>
-  <si>
-    <t>-1.403697</t>
-  </si>
-  <si>
-    <t>-0.9395737</t>
-  </si>
-  <si>
-    <t>18.64252</t>
-  </si>
-  <si>
-    <t>-24.8406</t>
-  </si>
-  <si>
-    <t>0.632989746</t>
-  </si>
-  <si>
-    <t>-0.4116868</t>
-  </si>
-  <si>
-    <t>-0.8697897</t>
-  </si>
-  <si>
-    <t>11.806571</t>
-  </si>
-  <si>
-    <t>-11.168697</t>
-  </si>
-  <si>
-    <t>0.583993844</t>
-  </si>
-  <si>
-    <t>-1.291596</t>
-  </si>
-  <si>
-    <t>-0.5797152</t>
-  </si>
-  <si>
-    <t>-22.79955</t>
-  </si>
-  <si>
-    <t>0.376963634</t>
-  </si>
-  <si>
-    <t>-1.57453</t>
-  </si>
-  <si>
-    <t>15.28003</t>
-  </si>
-  <si>
-    <t>-22.16007</t>
-  </si>
-  <si>
-    <t>0.6394868</t>
-  </si>
-  <si>
-    <t>0.273802023</t>
-  </si>
-  <si>
-    <t>-1.234055</t>
-  </si>
-  <si>
-    <t>-0.6529955</t>
-  </si>
-  <si>
-    <t>16.92515</t>
-  </si>
-  <si>
-    <t>-21.40586</t>
-  </si>
-  <si>
-    <t>1.3936885</t>
-  </si>
-  <si>
-    <t>0.187786275</t>
-  </si>
-  <si>
-    <t>-1.386354</t>
-  </si>
-  <si>
-    <t>-0.9943138</t>
-  </si>
-  <si>
-    <t>18.63885</t>
-  </si>
-  <si>
-    <t>-24.83326</t>
-  </si>
-  <si>
-    <t>0.663871796</t>
-  </si>
-  <si>
-    <t>0.7177376</t>
-  </si>
-  <si>
-    <t>-0.7898086</t>
-  </si>
-  <si>
-    <t>28.07918</t>
-  </si>
-  <si>
-    <t>-43.71392</t>
-  </si>
-  <si>
-    <t>0.30478129</t>
-  </si>
-  <si>
-    <t>0.088236</t>
-  </si>
-  <si>
-    <t>1.0924846</t>
-  </si>
-  <si>
-    <t>-1.3377198</t>
-  </si>
-  <si>
-    <t>30.46942</t>
-  </si>
-  <si>
-    <t>-43.43885</t>
-  </si>
-  <si>
-    <t>0.2750714</t>
-  </si>
-  <si>
-    <t>0.26561788</t>
-  </si>
-  <si>
-    <t>0.177128</t>
-  </si>
-  <si>
-    <t>25.80145</t>
-  </si>
-  <si>
-    <t>-43.2029</t>
-  </si>
-  <si>
-    <t>0.5110245</t>
-  </si>
-  <si>
-    <t>0.23605909</t>
-  </si>
-  <si>
-    <t>-0.06477196</t>
-  </si>
-  <si>
-    <t>1.2390978</t>
-  </si>
-  <si>
-    <t>-1.4012122</t>
-  </si>
-  <si>
-    <t>29.64424</t>
-  </si>
-  <si>
-    <t>-41.78848</t>
-  </si>
-  <si>
-    <t>0.36681266</t>
-  </si>
-  <si>
-    <t>0.65465701</t>
-  </si>
-  <si>
-    <t>-0.7615713</t>
-  </si>
-  <si>
-    <t>26.71267</t>
-  </si>
-  <si>
-    <t>-40.9809</t>
-  </si>
-  <si>
-    <t>0.8075836</t>
-  </si>
-  <si>
-    <t>0.24495132</t>
-  </si>
-  <si>
-    <t>0.13714916</t>
-  </si>
-  <si>
-    <t>24.53849</t>
-  </si>
-  <si>
-    <t>-40.67699</t>
-  </si>
-  <si>
-    <t>1.111495</t>
-  </si>
-  <si>
-    <t>0.21041963</t>
-  </si>
-  <si>
-    <t>-3.322547</t>
-  </si>
-  <si>
-    <t>42.37358</t>
-  </si>
-  <si>
-    <t>-76.34716</t>
-  </si>
-  <si>
-    <t>0.38689766</t>
-  </si>
-  <si>
-    <t>-2.889317</t>
-  </si>
-  <si>
-    <t>-0.68726</t>
-  </si>
-  <si>
-    <t>44.26845</t>
-  </si>
-  <si>
-    <t>-76.09245</t>
-  </si>
-  <si>
-    <t>0.2547139</t>
-  </si>
-  <si>
-    <t>0.340632182</t>
-  </si>
-  <si>
-    <t>-0.3445585</t>
-  </si>
-  <si>
-    <t>-0.8816025</t>
-  </si>
-  <si>
-    <t>11.592691</t>
-  </si>
-  <si>
-    <t>-10.740938</t>
-  </si>
-  <si>
-    <t>0.593297484</t>
-  </si>
-  <si>
-    <t>-1.114473</t>
-  </si>
-  <si>
-    <t>-0.6747769</t>
-  </si>
-  <si>
-    <t>16.16123</t>
-  </si>
-  <si>
-    <t>-19.878018</t>
-  </si>
-  <si>
-    <t>0.47990755</t>
-  </si>
-  <si>
-    <t>-1.052154</t>
-  </si>
-  <si>
-    <t>-0.7563054</t>
-  </si>
-  <si>
-    <t>15.20879</t>
-  </si>
-  <si>
-    <t>-17.973143</t>
-  </si>
-  <si>
-    <t>1.904874</t>
-  </si>
-  <si>
-    <t>0.18514816</t>
-  </si>
-  <si>
-    <t>-1.442153</t>
-  </si>
-  <si>
-    <t>13.18515</t>
-  </si>
-  <si>
-    <t>-17.97029</t>
-  </si>
-  <si>
-    <t>1.907727</t>
-  </si>
-  <si>
-    <t>0.18488422</t>
-  </si>
-  <si>
-    <t>-1.388379</t>
-  </si>
-  <si>
-    <t>-0.8143351</t>
-  </si>
-  <si>
-    <t>18.49225</t>
-  </si>
-  <si>
-    <t>-24.54005</t>
-  </si>
-  <si>
-    <t>0.530633802</t>
+    <t>2.202765</t>
+  </si>
+  <si>
+    <t>-44.11104</t>
+  </si>
+  <si>
+    <t>92.92796</t>
+  </si>
+  <si>
+    <t>0.513564076</t>
+  </si>
+  <si>
+    <t>0.5065211</t>
+  </si>
+  <si>
+    <t>-32.81446</t>
+  </si>
+  <si>
+    <t>70.33481</t>
+  </si>
+  <si>
+    <t>0.474375291</t>
+  </si>
+  <si>
+    <t>1.704748</t>
+  </si>
+  <si>
+    <t>-37.8477</t>
+  </si>
+  <si>
+    <t>80.40129</t>
+  </si>
+  <si>
+    <t>0.463099183</t>
+  </si>
+  <si>
+    <t>0.2256724</t>
+  </si>
+  <si>
+    <t>-26.61274</t>
+  </si>
+  <si>
+    <t>60.72548</t>
+  </si>
+  <si>
+    <t>0.543488876</t>
+  </si>
+  <si>
+    <t>0.2588801</t>
+  </si>
+  <si>
+    <t>-16.76962</t>
+  </si>
+  <si>
+    <t>41.03925</t>
+  </si>
+  <si>
+    <t>0.56534228</t>
+  </si>
+  <si>
+    <t>1.0426481</t>
+  </si>
+  <si>
+    <t>-9.626986</t>
+  </si>
+  <si>
+    <t>26.75397</t>
+  </si>
+  <si>
+    <t>0.574261362</t>
+  </si>
+  <si>
+    <t>0.3891582</t>
+  </si>
+  <si>
+    <t>-15.2483</t>
+  </si>
+  <si>
+    <t>37.9966</t>
+  </si>
+  <si>
+    <t>0.344352638</t>
+  </si>
+  <si>
+    <t>0.4130013</t>
+  </si>
+  <si>
+    <t>-0.03792022</t>
+  </si>
+  <si>
+    <t>-13.86065</t>
+  </si>
+  <si>
+    <t>38.38797</t>
+  </si>
+  <si>
+    <t>0.3913646</t>
+  </si>
+  <si>
+    <t>0.283152032</t>
+  </si>
+  <si>
+    <t>4.85515</t>
+  </si>
+  <si>
+    <t>-99.50194</t>
+  </si>
+  <si>
+    <t>206.5039</t>
+  </si>
+  <si>
+    <t>0.364151239</t>
+  </si>
+  <si>
+    <t>4.792021</t>
+  </si>
+  <si>
+    <t>0.09740538</t>
+  </si>
+  <si>
+    <t>-98.55598</t>
+  </si>
+  <si>
+    <t>207.7786</t>
+  </si>
+  <si>
+    <t>1.274743</t>
+  </si>
+  <si>
+    <t>0.192519589</t>
+  </si>
+  <si>
+    <t>4.81789</t>
+  </si>
+  <si>
+    <t>0.0847944</t>
+  </si>
+  <si>
+    <t>-98.59157</t>
+  </si>
+  <si>
+    <t>207.8498</t>
+  </si>
+  <si>
+    <t>1.345915</t>
+  </si>
+  <si>
+    <t>0.185789054</t>
+  </si>
+  <si>
+    <t>4.79618</t>
+  </si>
+  <si>
+    <t>0.08855788</t>
+  </si>
+  <si>
+    <t>-98.86706</t>
+  </si>
+  <si>
+    <t>208.4008</t>
+  </si>
+  <si>
+    <t>1.896906</t>
+  </si>
+  <si>
+    <t>0.141050268</t>
+  </si>
+  <si>
+    <t>4.781222</t>
+  </si>
+  <si>
+    <t>-97.62557</t>
+  </si>
+  <si>
+    <t>202.7511</t>
+  </si>
+  <si>
+    <t>0.499325913</t>
+  </si>
+  <si>
+    <t>4.595625</t>
+  </si>
+  <si>
+    <t>-97.3311</t>
+  </si>
+  <si>
+    <t>202.1622</t>
+  </si>
+  <si>
+    <t>0.52063</t>
+  </si>
+  <si>
+    <t>2.089417</t>
+  </si>
+  <si>
+    <t>-63.21744</t>
+  </si>
+  <si>
+    <t>133.9349</t>
+  </si>
+  <si>
+    <t>0.49025337</t>
+  </si>
+  <si>
+    <t>-1.938845</t>
+  </si>
+  <si>
+    <t>-7.240438</t>
+  </si>
+  <si>
+    <t>19.18676</t>
+  </si>
+  <si>
+    <t>0.524139077</t>
+  </si>
+  <si>
+    <t>-0.1245177</t>
+  </si>
+  <si>
+    <t>-19.011</t>
+  </si>
+  <si>
+    <t>42.72789</t>
+  </si>
+  <si>
+    <t>0.52541486</t>
+  </si>
+  <si>
+    <t>-2.714985</t>
+  </si>
+  <si>
+    <t>-4.301092</t>
+  </si>
+  <si>
+    <t>13.30807</t>
+  </si>
+  <si>
+    <t>0.503709271</t>
+  </si>
+  <si>
+    <t>1.221961</t>
+  </si>
+  <si>
+    <t>18.36226</t>
+  </si>
+  <si>
+    <t>-29.22452</t>
+  </si>
+  <si>
+    <t>0.501938155</t>
+  </si>
+  <si>
+    <t>-1.985316</t>
+  </si>
+  <si>
+    <t>-1.141327</t>
+  </si>
+  <si>
+    <t>27.4827</t>
+  </si>
+  <si>
+    <t>-43.32904</t>
+  </si>
+  <si>
+    <t>0.63327147</t>
+  </si>
+  <si>
+    <t>-1.066362</t>
+  </si>
+  <si>
+    <t>-0.6274748</t>
+  </si>
+  <si>
+    <t>16.48882</t>
+  </si>
+  <si>
+    <t>-21.34128</t>
+  </si>
+  <si>
+    <t>0.44932641</t>
+  </si>
+  <si>
+    <t>-1.335619</t>
+  </si>
+  <si>
+    <t>13.83042</t>
+  </si>
+  <si>
+    <t>-19.66084</t>
+  </si>
+  <si>
+    <t>1.680436</t>
+  </si>
+  <si>
+    <t>0.1939367</t>
+  </si>
+  <si>
+    <t>-0.6261392</t>
+  </si>
+  <si>
+    <t>-1.130358</t>
+  </si>
+  <si>
+    <t>13.848532</t>
+  </si>
+  <si>
+    <t>-16.060701</t>
+  </si>
+  <si>
+    <t>0.634140722</t>
+  </si>
+  <si>
+    <t>-0.9422298</t>
+  </si>
+  <si>
+    <t>0.70349088</t>
+  </si>
+  <si>
+    <t>-1.455278</t>
+  </si>
+  <si>
+    <t>15.041398</t>
+  </si>
+  <si>
+    <t>-14.082795</t>
+  </si>
+  <si>
+    <t>1.977906</t>
+  </si>
+  <si>
+    <t>0.235878802</t>
+  </si>
+  <si>
+    <t>-2.395741</t>
+  </si>
+  <si>
+    <t>35.97926</t>
+  </si>
+  <si>
+    <t>-63.95852</t>
+  </si>
+  <si>
+    <t>0.536174928</t>
+  </si>
+  <si>
+    <t>-1.134537</t>
+  </si>
+  <si>
+    <t>-0.6325439</t>
+  </si>
+  <si>
+    <t>17.06336</t>
+  </si>
+  <si>
+    <t>-22.49035</t>
+  </si>
+  <si>
+    <t>0.425266633</t>
+  </si>
+  <si>
+    <t>-1.387563</t>
+  </si>
+  <si>
+    <t>14.51482</t>
+  </si>
+  <si>
+    <t>-21.02964</t>
+  </si>
+  <si>
+    <t>1.460713</t>
+  </si>
+  <si>
+    <t>0.204866723</t>
+  </si>
+  <si>
+    <t>-1.464349</t>
+  </si>
+  <si>
+    <t>0.6452681</t>
+  </si>
+  <si>
+    <t>-0.9355874</t>
+  </si>
+  <si>
+    <t>18.37436</t>
+  </si>
+  <si>
+    <t>-20.74871</t>
+  </si>
+  <si>
+    <t>1.741639</t>
+  </si>
+  <si>
+    <t>0.178020166</t>
+  </si>
+  <si>
+    <t>0.08314883</t>
+  </si>
+  <si>
+    <t>39.8063</t>
+  </si>
+  <si>
+    <t>-71.61261</t>
+  </si>
+  <si>
+    <t>0.41275544</t>
+  </si>
+  <si>
+    <t>0.38456773</t>
+  </si>
+  <si>
+    <t>-0.529219</t>
+  </si>
+  <si>
+    <t>40.99957</t>
+  </si>
+  <si>
+    <t>-70.36277</t>
+  </si>
+  <si>
+    <t>1.249834</t>
+  </si>
+  <si>
+    <t>0.22095038</t>
+  </si>
+  <si>
+    <t>-0.944645852</t>
+  </si>
+  <si>
+    <t>1.7806856</t>
+  </si>
+  <si>
+    <t>-1.3111921</t>
+  </si>
+  <si>
+    <t>40.72686</t>
+  </si>
+  <si>
+    <t>-65.45371</t>
+  </si>
+  <si>
+    <t>0.575109103</t>
+  </si>
+  <si>
+    <t>-1.807349</t>
+  </si>
+  <si>
+    <t>42.42287</t>
+  </si>
+  <si>
+    <t>-76.84573</t>
+  </si>
+  <si>
+    <t>0.569840237</t>
+  </si>
+  <si>
+    <t>-0.8174266</t>
+  </si>
+  <si>
+    <t>-0.8701396</t>
+  </si>
+  <si>
+    <t>15.01369</t>
+  </si>
+  <si>
+    <t>-18.391009</t>
+  </si>
+  <si>
+    <t>0.653738624</t>
+  </si>
+  <si>
+    <t>-1.677271</t>
+  </si>
+  <si>
+    <t>-0.8978862</t>
+  </si>
+  <si>
+    <t>23.38363</t>
+  </si>
+  <si>
+    <t>-35.1309</t>
+  </si>
+  <si>
+    <t>0.603121374</t>
+  </si>
+  <si>
+    <t>-2.036025</t>
+  </si>
+  <si>
+    <t>32.09395</t>
+  </si>
+  <si>
+    <t>-56.1879</t>
+  </si>
+  <si>
+    <t>0.554101157</t>
+  </si>
+  <si>
+    <t>-0.4628506</t>
+  </si>
+  <si>
+    <t>-0.9136343</t>
+  </si>
+  <si>
+    <t>12.409432</t>
+  </si>
+  <si>
+    <t>-13.182501</t>
+  </si>
+  <si>
+    <t>0.540825639</t>
+  </si>
+  <si>
+    <t>-0.7946004</t>
+  </si>
+  <si>
+    <t>0.6755272</t>
+  </si>
+  <si>
+    <t>-1.3194505</t>
+  </si>
+  <si>
+    <t>14.027004</t>
+  </si>
+  <si>
+    <t>-12.054008</t>
+  </si>
+  <si>
+    <t>1.128494</t>
+  </si>
+  <si>
+    <t>0.307615361</t>
+  </si>
+  <si>
+    <t>-1.405718</t>
+  </si>
+  <si>
+    <t>-0.6482599</t>
+  </si>
+  <si>
+    <t>20.09437</t>
+  </si>
+  <si>
+    <t>-28.55237</t>
+  </si>
+  <si>
+    <t>0.443943425</t>
+  </si>
+  <si>
+    <t>-1.770147</t>
+  </si>
+  <si>
+    <t>0.6725439</t>
+  </si>
+  <si>
+    <t>-1.0359106</t>
+  </si>
+  <si>
+    <t>21.78038</t>
+  </si>
+  <si>
+    <t>-27.56076</t>
+  </si>
+  <si>
+    <t>0.9916162</t>
+  </si>
+  <si>
+    <t>0.270396402</t>
+  </si>
+  <si>
+    <t>-1.318485</t>
+  </si>
+  <si>
+    <t>-1.008055</t>
+  </si>
+  <si>
+    <t>19.70359</t>
+  </si>
+  <si>
+    <t>-27.77081</t>
+  </si>
+  <si>
+    <t>0.696894744</t>
+  </si>
+  <si>
+    <t>-0.4708122</t>
+  </si>
+  <si>
+    <t>-0.9111336</t>
+  </si>
+  <si>
+    <t>12.41961</t>
+  </si>
+  <si>
+    <t>-13.202856</t>
+  </si>
+  <si>
+    <t>0.546940996</t>
+  </si>
+  <si>
+    <t>-0.8025186</t>
+  </si>
+  <si>
+    <t>0.67307282</t>
+  </si>
+  <si>
+    <t>-1.3142865</t>
+  </si>
+  <si>
+    <t>-12.0714</t>
+  </si>
+  <si>
+    <t>1.131456</t>
+  </si>
+  <si>
+    <t>0.310633297</t>
+  </si>
+  <si>
+    <t>-1.468752</t>
+  </si>
+  <si>
+    <t>-0.5562986</t>
+  </si>
+  <si>
+    <t>20.50371</t>
+  </si>
+  <si>
+    <t>-29.37105</t>
+  </si>
+  <si>
+    <t>0.39989443</t>
+  </si>
+  <si>
+    <t>-1.701118</t>
+  </si>
+  <si>
+    <t>-28.1386</t>
+  </si>
+  <si>
+    <t>1.232455</t>
+  </si>
+  <si>
+    <t>0.2159341</t>
+  </si>
+  <si>
+    <t>-1.790934</t>
+  </si>
+  <si>
+    <t>0.5989902</t>
+  </si>
+  <si>
+    <t>-0.877992</t>
+  </si>
+  <si>
+    <t>21.75716</t>
+  </si>
+  <si>
+    <t>-27.51433</t>
+  </si>
+  <si>
+    <t>1.856723</t>
+  </si>
+  <si>
+    <t>0.15803856</t>
+  </si>
+  <si>
+    <t>-1.282805</t>
+  </si>
+  <si>
+    <t>-1.066402</t>
+  </si>
+  <si>
+    <t>19.49098</t>
+  </si>
+  <si>
+    <t>-27.3456</t>
+  </si>
+  <si>
+    <t>0.691832814</t>
+  </si>
+  <si>
+    <t>0.024822795</t>
+  </si>
+  <si>
+    <t>35.07434</t>
+  </si>
+  <si>
+    <t>-62.14868</t>
+  </si>
+  <si>
+    <t>0.3470118</t>
+  </si>
+  <si>
+    <t>-0.271131601</t>
+  </si>
+  <si>
+    <t>1.1627129</t>
+  </si>
+  <si>
+    <t>-1.0858445</t>
+  </si>
+  <si>
+    <t>38.70261</t>
+  </si>
+  <si>
+    <t>-61.40523</t>
+  </si>
+  <si>
+    <t>0.7434496</t>
+  </si>
+  <si>
+    <t>0.2392799</t>
+  </si>
+  <si>
+    <t>0.322414522</t>
+  </si>
+  <si>
+    <t>-0.5240481</t>
+  </si>
+  <si>
+    <t>36.27319</t>
+  </si>
+  <si>
+    <t>-60.91001</t>
+  </si>
+  <si>
+    <t>1.2386672</t>
+  </si>
+  <si>
+    <t>0.18679751</t>
+  </si>
+  <si>
+    <t>-0.53017176</t>
+  </si>
+  <si>
+    <t>1.4314713</t>
+  </si>
+  <si>
+    <t>-1.2064983</t>
+  </si>
+  <si>
+    <t>36.90598</t>
+  </si>
+  <si>
+    <t>-57.81196</t>
+  </si>
+  <si>
+    <t>0.41400164</t>
+  </si>
+  <si>
+    <t>-0.05713001</t>
+  </si>
+  <si>
+    <t>32.40343</t>
+  </si>
+  <si>
+    <t>-56.80686</t>
+  </si>
+  <si>
+    <t>1.005097</t>
+  </si>
+  <si>
+    <t>0.25046556</t>
+  </si>
+  <si>
+    <t>-2.591059</t>
+  </si>
+  <si>
+    <t>47.36899</t>
+  </si>
+  <si>
+    <t>-86.73798</t>
+  </si>
+  <si>
+    <t>0.571238485</t>
+  </si>
+  <si>
+    <t>-0.4871442</t>
+  </si>
+  <si>
+    <t>-0.8784076</t>
+  </si>
+  <si>
+    <t>12.397409</t>
+  </si>
+  <si>
+    <t>-13.158455</t>
+  </si>
+  <si>
+    <t>0.515936209</t>
+  </si>
+  <si>
+    <t>-0.8436448</t>
+  </si>
+  <si>
+    <t>0.71308059</t>
+  </si>
+  <si>
+    <t>-1.3094328</t>
+  </si>
+  <si>
+    <t>14.131189</t>
+  </si>
+  <si>
+    <t>-12.262378</t>
+  </si>
+  <si>
+    <t>0.896077</t>
+  </si>
+  <si>
+    <t>0.329621371</t>
+  </si>
+  <si>
+    <t>-1.394539</t>
+  </si>
+  <si>
+    <t>-0.5369202</t>
+  </si>
+  <si>
+    <t>19.96723</t>
+  </si>
+  <si>
+    <t>-28.2981</t>
+  </si>
+  <si>
+    <t>0.392399024</t>
+  </si>
+  <si>
+    <t>-1.624507</t>
+  </si>
+  <si>
+    <t>17.75275</t>
+  </si>
+  <si>
+    <t>-27.5055</t>
+  </si>
+  <si>
+    <t>0.7925967</t>
+  </si>
+  <si>
+    <t>0.264008397</t>
+  </si>
+  <si>
+    <t>-1.359539</t>
+  </si>
+  <si>
+    <t>-0.8253351</t>
+  </si>
+  <si>
+    <t>19.70265</t>
+  </si>
+  <si>
+    <t>-27.76894</t>
+  </si>
+  <si>
+    <t>0.598382033</t>
   </si>
 </sst>
 </file>
@@ -3154,13 +3130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5257,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T62" sqref="T2:T62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5292,13 +5268,13 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -5337,18 +5313,18 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2">
@@ -5358,7 +5334,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5413,13 +5389,13 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3">
@@ -5484,13 +5460,13 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4">
@@ -5547,7 +5523,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>460</v>
@@ -5555,36 +5531,36 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
         <v>461</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>462</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>463</v>
-      </c>
-      <c r="K5" t="s">
-        <v>464</v>
-      </c>
-      <c r="L5" t="s">
-        <v>465</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="O5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TAlphaNInd.glmm.4</v>
+        <v>TAlphaEnd.glmm.4</v>
       </c>
       <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5592,7 +5568,7 @@
       </c>
       <c r="Q5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5603,14 +5579,14 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[4]] = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </v>
+        <v xml:space="preserve">modelTMB[[4]] = glmmTMB(TAlphaEnd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U5" t="s">
         <v>450</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, TAlphaNInd) </v>
+        <v xml:space="preserve">hist(Results2, TAlphaEnd) </v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -5618,44 +5594,44 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J6" t="s">
         <v>466</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>467</v>
-      </c>
-      <c r="J6" t="s">
-        <v>468</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>448</v>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>TAlphaEnd.glmm.5</v>
+        <v>FAlphaAll.glmm.5</v>
       </c>
       <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5674,14 +5650,14 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[5]] = glmmTMB(TAlphaEnd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+        <v xml:space="preserve">modelTMB[[5]] = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U6" t="s">
         <v>450</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, TAlphaEnd) </v>
+        <v xml:space="preserve">hist(Results2, FAlphaAll) </v>
       </c>
       <c r="W6" s="5">
         <v>0.26736111111111099</v>
@@ -5701,44 +5677,44 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>FAlphaAll.glmm.6</v>
+        <v>FAlphaNat.glmm.6</v>
       </c>
       <c r="P7" s="1" t="str">
         <f>IF(E7="NA"," ",$N$9)</f>
@@ -5757,14 +5733,14 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[6]] = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">modelTMB[[6]] = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U7" t="s">
         <v>450</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, FAlphaAll) </v>
+        <v xml:space="preserve">hist(Results2, FAlphaNat) </v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -5772,44 +5748,44 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="5"/>
-        <v>FAlphaNat.glmm.7</v>
+        <v>FAlphaNInd.glmm.7</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
@@ -5828,14 +5804,14 @@
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[7]] = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">modelTMB[[7]] = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U8" t="s">
         <v>450</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, FAlphaNat) </v>
+        <v xml:space="preserve">hist(Results2, FAlphaNInd) </v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -5843,44 +5819,44 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>143</v>
       </c>
       <c r="O9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>FAlphaNInd.glmm.8</v>
+        <v>FAlphaEnd.glmm.8</v>
       </c>
       <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5899,14 +5875,14 @@
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[8]] = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">modelTMB[[8]] = glmmTMB(FAlphaEnd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U9" t="s">
         <v>450</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, FAlphaNInd) </v>
+        <v xml:space="preserve">hist(Results2, FAlphaEnd) </v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -5917,31 +5893,31 @@
         <v>217</v>
       </c>
       <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
         <v>482</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>483</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>484</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>485</v>
@@ -5955,7 +5931,7 @@
       </c>
       <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5970,7 +5946,7 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[9]] = glmmTMB(FAlphaEnd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">modelTMB[[9]] = glmmTMB(FAlphaEnd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U10" t="s">
         <v>450</v>
@@ -5985,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>486</v>
@@ -5993,40 +5969,40 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>488</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>489</v>
-      </c>
-      <c r="K11" t="s">
-        <v>490</v>
-      </c>
-      <c r="L11" t="s">
-        <v>491</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>145</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="5"/>
-        <v>FAlphaEnd.glmm.10</v>
+        <v>abund.all.glmm.10</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="0"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="1"/>
@@ -6041,14 +6017,14 @@
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[10]] = glmmTMB(FAlphaEnd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">modelTMB[[10]] = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U11" t="s">
         <v>450</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, FAlphaEnd) </v>
+        <v xml:space="preserve">hist(Results2, abund.all) </v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -6059,31 +6035,31 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>491</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
         <v>492</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>493</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>494</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>495</v>
@@ -6101,7 +6077,7 @@
       </c>
       <c r="Q12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6112,7 +6088,7 @@
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[11]] = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">modelTMB[[11]] = glmmTMB(abund.all ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U12" t="s">
         <v>450</v>
@@ -6135,13 +6111,13 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>497</v>
       </c>
       <c r="H13">
@@ -6206,13 +6182,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" t="s">
         <v>503</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14">
@@ -6239,11 +6215,11 @@
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6254,7 +6230,7 @@
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[13]] = glmmTMB(abund.all ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">modelTMB[[13]] = glmmTMB(abund.all ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U14" t="s">
         <v>450</v>
@@ -6277,13 +6253,13 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15">
@@ -6340,7 +6316,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
         <v>512</v>
@@ -6348,13 +6324,13 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16">
@@ -6377,7 +6353,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="5"/>
-        <v>abund.nind.glmm.15</v>
+        <v>abund.end.glmm.15</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
@@ -6396,14 +6372,14 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[15]] = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+        <v xml:space="preserve">modelTMB[[15]] = glmmTMB(abund.end ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U16" t="s">
         <v>450</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, abund.nind) </v>
+        <v xml:space="preserve">hist(Results2, abund.end) </v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -6411,7 +6387,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -6419,13 +6395,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17">
@@ -6445,7 +6421,7 @@
       </c>
       <c r="O17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>abund.end.glmm.16</v>
+        <v>abund.nind.glmm.16</v>
       </c>
       <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6464,14 +6440,14 @@
       </c>
       <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[16]] = glmmTMB(abund.end ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+        <v xml:space="preserve">modelTMB[[16]] = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "poisson") </v>
       </c>
       <c r="U17" t="s">
         <v>450</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, abund.end) </v>
+        <v xml:space="preserve">hist(Results2, abund.nind) </v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -6487,13 +6463,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18">
@@ -6555,13 +6531,13 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19">
@@ -6623,13 +6599,13 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
       <c r="H20">
@@ -6638,14 +6614,14 @@
       <c r="I20" t="s">
         <v>529</v>
       </c>
-      <c r="J20">
-        <v>6.7173611111111109</v>
+      <c r="J20" t="s">
+        <v>530</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O20" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6686,34 +6662,34 @@
         <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="5"/>
@@ -6754,28 +6730,28 @@
         <v>70</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7">
-        <v>2</v>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>3</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6822,34 +6798,34 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>536</v>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>537</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J23" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6887,25 +6863,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>542</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
         <v>543</v>
@@ -6913,19 +6889,19 @@
       <c r="J24" t="s">
         <v>544</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>545</v>
-      </c>
-      <c r="L24" t="s">
-        <v>546</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="5"/>
-        <v>all.tax.brich.glmm.23</v>
+        <v>all.tax.brepl.glmm.23</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="1"/>
@@ -6940,14 +6916,14 @@
       </c>
       <c r="T24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[23]] = glmmTMB(all.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[23]] = glmmTMB(all.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U24" t="s">
         <v>450</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, all.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, all.tax.brepl) </v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -6958,34 +6934,34 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
+        <v>546</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
         <v>547</v>
       </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" t="s">
         <v>548</v>
       </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>549</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>550</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>551</v>
       </c>
       <c r="O25" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7001,14 +6977,14 @@
       </c>
       <c r="R25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S25" t="s">
         <v>95</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[24]] = glmmTMB(all.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[24]] = glmmTMB(all.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U25" t="s">
         <v>451</v>
@@ -7026,34 +7002,34 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
         <v>552</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H26">
         <v>4</v>
       </c>
       <c r="I26" t="s">
+        <v>553</v>
+      </c>
+      <c r="J26" t="s">
         <v>554</v>
-      </c>
-      <c r="J26" t="s">
-        <v>555</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="5"/>
@@ -7091,45 +7067,45 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
+        <v>556</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>557</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>12</v>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>558</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J27" t="s">
-        <v>559</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
+        <v>560</v>
+      </c>
+      <c r="K27" t="s">
+        <v>561</v>
       </c>
       <c r="L27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="O27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>nat.tax.brich.glmm.26</v>
+        <v>nat.tax.btotal.glmm.26</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7137,21 +7113,21 @@
       </c>
       <c r="R27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S27" t="s">
         <v>95</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[26]] = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[26]] = glmmTMB(nat.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U27" t="s">
         <v>451</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nat.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, nat.tax.btotal) </v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -7159,41 +7135,41 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>562</v>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>2.7881944444444442</v>
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>564</v>
       </c>
       <c r="J28" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="5"/>
-        <v>nat.tax.brepl.glmm.27</v>
+        <v>nat.tax.brich.glmm.27</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="0"/>
@@ -7205,21 +7181,21 @@
       </c>
       <c r="R28" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S28" t="s">
         <v>95</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[27]] = glmmTMB(nat.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[27]] = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U28" t="s">
         <v>451</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nat.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2, nat.tax.brich) </v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -7227,45 +7203,45 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>567</v>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>568</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J29" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.btotal.glmm.28</v>
+        <v>nat.tax.brepl.glmm.28</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q29" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7280,14 +7256,14 @@
       </c>
       <c r="T29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[28]] = glmmTMB(nind.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[28]] = glmmTMB(nat.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U29" t="s">
         <v>451</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2, nat.tax.brepl) </v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -7295,25 +7271,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>572</v>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
         <v>573</v>
@@ -7329,7 +7305,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.btotal.glmm.29</v>
+        <v>nat.tax.brepl.glmm.29</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="0"/>
@@ -7341,21 +7317,21 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S30" t="s">
         <v>95</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[29]] = glmmTMB(nind.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[29]] = glmmTMB(nat.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U30" t="s">
         <v>451</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2, nat.tax.brepl) </v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -7363,7 +7339,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>577</v>
@@ -7371,37 +7347,37 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>12</v>
+      <c r="E31" t="s">
+        <v>578</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>579</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L31" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.btotal.glmm.30</v>
+        <v>nat.tax.brepl.glmm.30</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7409,21 +7385,21 @@
       </c>
       <c r="R31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S31" t="s">
         <v>95</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[30]] = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[30]] = glmmTMB(nat.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U31" t="s">
         <v>451</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2, nat.tax.brepl) </v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -7431,41 +7407,41 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J32" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="O32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.brich.glmm.31</v>
+        <v>nind.tax.btotal.glmm.31</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7484,14 +7460,14 @@
       </c>
       <c r="T32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[31]] = glmmTMB(nind.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[31]] = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U32" t="s">
         <v>451</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -7499,45 +7475,45 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>588</v>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>589</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.brich.glmm.32</v>
+        <v>nind.tax.btotal.glmm.32</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="1"/>
@@ -7552,14 +7528,14 @@
       </c>
       <c r="T33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[32]] = glmmTMB(nind.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[32]] = glmmTMB(nind.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U33" t="s">
         <v>451</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -7570,22 +7546,22 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" t="s">
         <v>595</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
         <v>596</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
         <v>597</v>
@@ -7593,11 +7569,11 @@
       <c r="J34" t="s">
         <v>598</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>599</v>
-      </c>
-      <c r="L34" t="s">
-        <v>600</v>
       </c>
       <c r="O34" s="1" t="str">
         <f t="shared" si="5"/>
@@ -7609,7 +7585,7 @@
       </c>
       <c r="Q34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -7620,7 +7596,7 @@
       </c>
       <c r="T34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[33]] = glmmTMB(nind.tax.brich ~ Dist_edge_std +Dist_trail_beginning_std +Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[33]] = glmmTMB(nind.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U34" t="s">
         <v>451</v>
@@ -7635,41 +7611,41 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>600</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
         <v>601</v>
       </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="J35" t="s">
         <v>602</v>
       </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
         <v>603</v>
-      </c>
-      <c r="J35" t="s">
-        <v>604</v>
-      </c>
-      <c r="K35" t="s">
-        <v>605</v>
-      </c>
-      <c r="L35" t="s">
-        <v>606</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.brich.glmm.34</v>
+        <v>nind.tax.brepl.glmm.34</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="0"/>
@@ -7681,21 +7657,21 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S35" t="s">
         <v>95</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[34]] = glmmTMB(nind.tax.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[34]] = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U35" t="s">
         <v>451</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, nind.tax.brepl) </v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -7703,41 +7679,41 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
+        <v>604</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>605</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>606</v>
+      </c>
+      <c r="J36" t="s">
         <v>607</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>608</v>
-      </c>
-      <c r="J36" t="s">
-        <v>609</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.brepl.glmm.35</v>
+        <v>end.tax.btotal.glmm.35</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="0"/>
@@ -7749,21 +7725,21 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S36" t="s">
         <v>95</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[35]] = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[35]] = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U36" t="s">
         <v>451</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2, end.tax.btotal) </v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -7771,45 +7747,45 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>12</v>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>610</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37" t="s">
+        <v>611</v>
+      </c>
+      <c r="J37" t="s">
+        <v>612</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
         <v>613</v>
-      </c>
-      <c r="J37" t="s">
-        <v>614</v>
-      </c>
-      <c r="K37" t="s">
-        <v>615</v>
-      </c>
-      <c r="L37" t="s">
-        <v>616</v>
       </c>
       <c r="O37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>nind.tax.brepl.glmm.36</v>
+        <v>end.tax.brich.glmm.36</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -7817,21 +7793,21 @@
       </c>
       <c r="R37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S37" t="s">
         <v>95</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[36]] = glmmTMB(nind.tax.brepl ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[36]] = glmmTMB(end.tax.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U37" t="s">
         <v>451</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, nind.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2, end.tax.brich) </v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -7839,41 +7815,41 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>618</v>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J38" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="5"/>
-        <v>end.tax.btotal.glmm.37</v>
+        <v>end.tax.brepl.glmm.37</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
@@ -7885,21 +7861,21 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S38" t="s">
         <v>95</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[37]] = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[37]] = glmmTMB(end.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U38" t="s">
         <v>451</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, end.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2, end.tax.brepl) </v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -7907,41 +7883,41 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>623</v>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>619</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J39" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="O39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>end.tax.brich.glmm.38</v>
+        <v>all.func.btotal.glmm.38</v>
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7960,14 +7936,14 @@
       </c>
       <c r="T39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[38]] = glmmTMB(end.tax.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[38]] = glmmTMB(all.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U39" t="s">
         <v>451</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, end.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2, all.func.btotal) </v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -7975,45 +7951,45 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
+        <v>623</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>624</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>625</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>626</v>
+      </c>
+      <c r="J40" t="s">
         <v>627</v>
       </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>628</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>629</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>630</v>
       </c>
       <c r="O40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>end.tax.brepl.glmm.39</v>
+        <v>all.func.btotal.glmm.39</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8021,21 +7997,21 @@
       </c>
       <c r="R40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S40" t="s">
         <v>95</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[39]] = glmmTMB(end.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[39]] = glmmTMB(all.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U40" t="s">
         <v>451</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, end.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2, all.func.btotal) </v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -8043,41 +8019,41 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
+        <v>630</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
         <v>631</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
+        <v>632</v>
+      </c>
+      <c r="J41" t="s">
         <v>633</v>
-      </c>
-      <c r="J41" t="s">
-        <v>634</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="5"/>
-        <v>all.func.btotal.glmm.40</v>
+        <v>all.func.brich.glmm.40</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="0"/>
@@ -8096,14 +8072,14 @@
       </c>
       <c r="T41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[40]] = glmmTMB(all.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[40]] = glmmTMB(all.func.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U41" t="s">
         <v>451</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, all.func.btotal) </v>
+        <v xml:space="preserve">hist(Results2, all.func.brich) </v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -8114,22 +8090,22 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
+        <v>635</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>636</v>
       </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
         <v>637</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>638</v>
@@ -8137,11 +8113,11 @@
       <c r="J42" t="s">
         <v>639</v>
       </c>
-      <c r="K42">
-        <v>0</v>
+      <c r="K42" t="s">
+        <v>640</v>
       </c>
       <c r="L42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O42" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8149,7 +8125,7 @@
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8164,7 +8140,7 @@
       </c>
       <c r="T42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[41]] = glmmTMB(all.func.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[41]] = glmmTMB(all.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U42" t="s">
         <v>451</v>
@@ -8179,41 +8155,41 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>12</v>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>643</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J43" t="s">
-        <v>643</v>
-      </c>
-      <c r="K43" t="s">
-        <v>644</v>
+        <v>645</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="5"/>
-        <v>all.func.brich.glmm.42</v>
+        <v>all.func.brepl.glmm.42</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="0"/>
@@ -8225,21 +8201,21 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S43" t="s">
         <v>95</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[42]] = glmmTMB(all.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[42]] = glmmTMB(all.func.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U43" t="s">
         <v>451</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, all.func.brich) </v>
+        <v xml:space="preserve">hist(Results2, all.func.brepl) </v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -8247,41 +8223,41 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>647</v>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>648</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J44" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="5"/>
-        <v>all.func.brepl.glmm.43</v>
+        <v>nat.func.btotal.glmm.43</v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="0"/>
@@ -8300,14 +8276,14 @@
       </c>
       <c r="T44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[43]] = glmmTMB(all.func.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[43]] = glmmTMB(nat.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U44" t="s">
         <v>451</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">hist(Results2, all.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2, nat.func.btotal) </v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -8318,34 +8294,34 @@
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>652</v>
+      <c r="E45" t="s">
+        <v>653</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>654</v>
       </c>
       <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>653</v>
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>0.83124999999999993</v>
       </c>
       <c r="J45" t="s">
-        <v>654</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>655</v>
+      </c>
+      <c r="K45" t="s">
+        <v>656</v>
       </c>
       <c r="L45" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O45" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8353,7 +8329,7 @@
       </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -8368,7 +8344,7 @@
       </c>
       <c r="T45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[44]] = glmmTMB(nat.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[44]] = glmmTMB(nat.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U45" t="s">
         <v>451</v>
@@ -8386,34 +8362,34 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>657</v>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>659</v>
       </c>
       <c r="H46">
         <v>4</v>
       </c>
-      <c r="I46">
-        <v>1.1402777777777777</v>
+      <c r="I46" t="s">
+        <v>660</v>
       </c>
       <c r="J46" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="5"/>
@@ -8454,34 +8430,34 @@
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47">
         <v>3</v>
       </c>
-      <c r="I47" t="s">
-        <v>661</v>
+      <c r="I47">
+        <v>1.23125</v>
       </c>
       <c r="J47" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K47" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L47" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O47" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8522,34 +8498,34 @@
         <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>12</v>
+      <c r="E48" t="s">
+        <v>668</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>669</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="J48" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="K48" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="L48" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8557,22 +8533,22 @@
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S48" t="s">
         <v>95</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[47]] = glmmTMB(nat.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[47]] = glmmTMB(nat.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U48" t="s">
         <v>451</v>
@@ -8590,34 +8566,34 @@
         <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>672</v>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>675</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="J49" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="5"/>
@@ -8658,34 +8634,34 @@
         <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>677</v>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J50" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O50" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8701,14 +8677,14 @@
       </c>
       <c r="R50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S50" t="s">
         <v>95</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[49]] = glmmTMB(nind.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[49]] = glmmTMB(nind.func.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U50" t="s">
         <v>451</v>
@@ -8726,34 +8702,34 @@
         <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>683</v>
+      <c r="E51" t="s">
+        <v>684</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>685</v>
       </c>
       <c r="H51">
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J51" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K51" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L51" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="5"/>
@@ -8794,34 +8770,34 @@
         <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>12</v>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>691</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="J52" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="K52" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="L52" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="O52" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8837,14 +8813,14 @@
       </c>
       <c r="R52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S52" t="s">
         <v>95</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">modelTMB[[51]] = glmmTMB(nind.func.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[51]] = glmmTMB(nind.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U52" t="s">
         <v>451</v>
@@ -8862,34 +8838,34 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>695</v>
+      <c r="E53" t="s">
+        <v>697</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>698</v>
       </c>
       <c r="H53">
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J53" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="O53" s="1" t="str">
         <f t="shared" ref="O53" si="6" xml:space="preserve"> CONCATENATE(B53, ".glmm.",A53)</f>
@@ -8930,63 +8906,63 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>700</v>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="J54" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="K54" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L54" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f t="shared" ref="O54:O62" si="11" xml:space="preserve"> CONCATENATE(B54, ".glmm.",A54)</f>
+        <f t="shared" ref="O54:O60" si="11" xml:space="preserve"> CONCATENATE(B54, ".glmm.",A54)</f>
         <v>nind.func.brich.glmm.53</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f t="shared" ref="P54:P62" si="12">IF(E54="NA"," ",$N$9)</f>
+        <f t="shared" ref="P54:P60" si="12">IF(E54="NA"," ",$N$9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q54" s="1" t="str">
-        <f t="shared" ref="Q54:Q62" si="13">IF(F54="NA"," ",$N$10)</f>
+        <f t="shared" ref="Q54:Q60" si="13">IF(F54="NA"," ",$N$10)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R54" s="1" t="str">
-        <f t="shared" ref="R54:R62" si="14">IF(G54="NA"," ",$N$11)</f>
-        <v>Dist_trail_std +</v>
+        <f t="shared" ref="R54:R60" si="14">IF(G54="NA"," ",$N$11)</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S54" t="s">
         <v>95</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" ref="T54:T62" si="15">CONCATENATE($N$15,A54,"]]",$N$3,$N$2,B54,$N$4,P54,Q54,R54,$N$6,U54,$N$7,S54,$N$8)</f>
-        <v xml:space="preserve">modelTMB[[53]] = glmmTMB(nind.func.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <f t="shared" ref="T54:T60" si="15">CONCATENATE($N$15,A54,"]]",$N$3,$N$2,B54,$N$4,P54,Q54,R54,$N$6,U54,$N$7,S54,$N$8)</f>
+        <v xml:space="preserve">modelTMB[[53]] = glmmTMB(nind.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U54" t="s">
         <v>451</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" ref="V54:V62" si="16">CONCATENATE($N$12,$N$13,B54,$N$8)</f>
+        <f t="shared" ref="V54:V60" si="16">CONCATENATE($N$12,$N$13,B54,$N$8)</f>
         <v xml:space="preserve">hist(Results2, nind.func.brich) </v>
       </c>
     </row>
@@ -8995,41 +8971,41 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
         <v>12</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J55" t="s">
-        <v>707</v>
-      </c>
-      <c r="K55" t="s">
-        <v>708</v>
+        <v>709</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O55" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>nind.func.brich.glmm.54</v>
+        <v>nind.func.brepl.glmm.54</v>
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9048,14 +9024,14 @@
       </c>
       <c r="T55" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[54]] = glmmTMB(nind.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[54]] = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U55" t="s">
         <v>451</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, nind.func.brich) </v>
+        <v xml:space="preserve">hist(Results2, nind.func.brepl) </v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -9063,41 +9039,41 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="C56" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>12</v>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>712</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J56" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O56" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>nind.func.brepl.glmm.55</v>
+        <v>end.func.btotal.glmm.55</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9109,21 +9085,21 @@
       </c>
       <c r="R56" s="1" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S56" t="s">
         <v>95</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[55]] = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[55]] = glmmTMB(end.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U56" t="s">
         <v>451</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, nind.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2, end.func.btotal) </v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -9131,41 +9107,41 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="C57" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>12</v>
+      <c r="E57" t="s">
+        <v>717</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>718</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J57" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="K57" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="L57" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="O57" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>nind.func.brepl.glmm.56</v>
+        <v>end.func.btotal.glmm.56</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9177,21 +9153,21 @@
       </c>
       <c r="R57" s="1" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S57" t="s">
         <v>95</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[56]] = glmmTMB(nind.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[56]] = glmmTMB(end.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U57" t="s">
         <v>451</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, nind.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2, end.func.btotal) </v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -9199,41 +9175,41 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C58" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>721</v>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>724</v>
       </c>
       <c r="H58">
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="J58" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O58" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>end.func.btotal.glmm.57</v>
+        <v>end.func.brich.glmm.57</v>
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9252,14 +9228,14 @@
       </c>
       <c r="T58" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[57]] = glmmTMB(end.func.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[57]] = glmmTMB(end.func.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U58" t="s">
         <v>451</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, end.func.btotal) </v>
+        <v xml:space="preserve">hist(Results2, end.func.brich) </v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -9270,34 +9246,34 @@
         <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>726</v>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J59" t="s">
-        <v>728</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
+        <v>730</v>
+      </c>
+      <c r="K59" t="s">
+        <v>731</v>
       </c>
       <c r="L59" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="O59" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9313,14 +9289,14 @@
       </c>
       <c r="R59" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S59" t="s">
         <v>95</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[58]] = glmmTMB(end.func.brich ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[58]] = glmmTMB(end.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U59" t="s">
         <v>451</v>
@@ -9335,41 +9311,41 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>12</v>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>734</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="J60" t="s">
-        <v>733</v>
-      </c>
-      <c r="K60" t="s">
-        <v>734</v>
+        <v>736</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O60" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>end.func.brich.glmm.59</v>
+        <v>end.func.brepl.glmm.59</v>
       </c>
       <c r="P60" s="1" t="str">
         <f t="shared" si="12"/>
@@ -9377,159 +9353,23 @@
       </c>
       <c r="Q60" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R60" s="1" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S60" t="s">
         <v>95</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[59]] = glmmTMB(end.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+        <v xml:space="preserve">modelTMB[[59]] = glmmTMB(end.func.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
       </c>
       <c r="U60" t="s">
         <v>451</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, end.func.brich) </v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>366</v>
-      </c>
-      <c r="C61" t="s">
-        <v>736</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>3</v>
-      </c>
-      <c r="I61" t="s">
-        <v>737</v>
-      </c>
-      <c r="J61" t="s">
-        <v>738</v>
-      </c>
-      <c r="K61" t="s">
-        <v>739</v>
-      </c>
-      <c r="L61" t="s">
-        <v>740</v>
-      </c>
-      <c r="O61" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>end.func.brich.glmm.60</v>
-      </c>
-      <c r="P61" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q61" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R61" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S61" t="s">
-        <v>95</v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[60]] = glmmTMB(end.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
-      </c>
-      <c r="U61" t="s">
-        <v>451</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">hist(Results2, end.func.brich) </v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>377</v>
-      </c>
-      <c r="C62" t="s">
-        <v>741</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62" t="s">
-        <v>743</v>
-      </c>
-      <c r="J62" t="s">
-        <v>744</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
-        <v>745</v>
-      </c>
-      <c r="O62" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>end.func.brepl.glmm.61</v>
-      </c>
-      <c r="P62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q62" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R62" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Dist_trail_std +</v>
-      </c>
-      <c r="S62" t="s">
-        <v>95</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">modelTMB[[61]] = glmmTMB(end.func.brepl ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
-      </c>
-      <c r="U62" t="s">
-        <v>451</v>
-      </c>
-      <c r="V62" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">hist(Results2, end.func.brepl) </v>
       </c>
@@ -9979,11 +9819,15 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T2:T18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
     <col min="20" max="20" width="114.33203125" customWidth="1"/>
   </cols>
   <sheetData>
